--- a/src/main/resources/ApacheExcel1.xlsx
+++ b/src/main/resources/ApacheExcel1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuNiOr\IdeaProjects\CucumberTeachEvening\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B872E67-78DB-4E07-95BD-65A7A666E8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0072E580-5F20-495A-B1AE-B26EEB2098DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -357,7 +357,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/ApacheExcel1.xlsx
+++ b/src/main/resources/ApacheExcel1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuNiOr\IdeaProjects\CucumberTeachEvening\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0072E580-5F20-495A-B1AE-B26EEB2098DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA1B1A7-514B-435D-A594-9FFACB038A0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Lion</t>
   </si>
@@ -37,6 +37,18 @@
   </si>
   <si>
     <t>Bear</t>
+  </si>
+  <si>
+    <t>White Tiger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>End</t>
   </si>
 </sst>
 </file>
@@ -354,15 +366,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A9" sqref="A9:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -370,15 +382,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -386,12 +404,41 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/ApacheExcel1.xlsx
+++ b/src/main/resources/ApacheExcel1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuNiOr\IdeaProjects\CucumberTeachEvening\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA1B1A7-514B-435D-A594-9FFACB038A0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE86943C-1922-4436-B983-81DD13A039B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -369,7 +369,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
